--- a/testCase.xlsx
+++ b/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10600" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="SkuIdCase" sheetId="1" r:id="rId1"/>
@@ -1135,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1305,8 +1305,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
